--- a/A7/foto escolhida/28-09-2023_12-05-49/tratamento.xlsx
+++ b/A7/foto escolhida/28-09-2023_12-05-49/tratamento.xlsx
@@ -3,21 +3,22 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E78C19E-F487-4314-B505-A733735F7EE7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53C6E919-61F0-403D-936B-23E767CFC62A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
     <sheet name="filtro" sheetId="3" r:id="rId2"/>
+    <sheet name="Planilha1" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Plan1!$B$1</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">Plan1!$B$2:$B$105</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">filtro!$E$1</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">filtro!$E$2:$E$91</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">filtro!$B$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">filtro!$B$2:$B$91</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">filtro!$B$1</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">filtro!$B$2:$B$91</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">filtro!$E$1</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">filtro!$E$2:$E$91</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
   <si>
     <t>Id</t>
   </si>
@@ -123,13 +124,29 @@
   <si>
     <t>média</t>
   </si>
+  <si>
+    <t>q1</t>
+  </si>
+  <si>
+    <t>q3</t>
+  </si>
+  <si>
+    <t>dif</t>
+  </si>
+  <si>
+    <t>limiar</t>
+  </si>
+  <si>
+    <t>x0</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -191,7 +208,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -212,6 +229,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1380,9 +1398,9 @@
           </c:marker>
           <c:xVal>
             <c:strRef>
-              <c:f>filtro!$A$2:$A$91</c:f>
+              <c:f>filtro!$A$2:$A$200</c:f>
               <c:strCache>
-                <c:ptCount val="90"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="2">
                   <c:v>3</c:v>
                 </c:pt>
@@ -1586,43 +1604,61 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>102</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>filtro!$B$2:$B$91</c:f>
+              <c:f>filtro!$B$2:$B$200</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="90"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
+                <c:ptCount val="199"/>
                 <c:pt idx="2">
                   <c:v>14407</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>13201</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="5">
                   <c:v>21221</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="9">
                   <c:v>18402</c:v>
                 </c:pt>
@@ -1632,30 +1668,15 @@
                 <c:pt idx="11">
                   <c:v>16374</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="13">
                   <c:v>26326</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>18525</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="18">
                   <c:v>20097</c:v>
                 </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="20">
                   <c:v>18892</c:v>
                 </c:pt>
@@ -1671,33 +1692,18 @@
                 <c:pt idx="24">
                   <c:v>14803</c:v>
                 </c:pt>
-                <c:pt idx="25">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="26">
                   <c:v>19809</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>26135</c:v>
                 </c:pt>
-                <c:pt idx="28">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="30">
                   <c:v>12381</c:v>
                 </c:pt>
-                <c:pt idx="31">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="32">
                   <c:v>15162</c:v>
                 </c:pt>
-                <c:pt idx="33">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="34">
                   <c:v>17580</c:v>
                 </c:pt>
@@ -1716,9 +1722,6 @@
                 <c:pt idx="39">
                   <c:v>16677</c:v>
                 </c:pt>
-                <c:pt idx="40">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="41">
                   <c:v>12840</c:v>
                 </c:pt>
@@ -1728,9 +1731,6 @@
                 <c:pt idx="43">
                   <c:v>18005</c:v>
                 </c:pt>
-                <c:pt idx="44">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="45">
                   <c:v>14286</c:v>
                 </c:pt>
@@ -1743,15 +1743,9 @@
                 <c:pt idx="48">
                   <c:v>19973</c:v>
                 </c:pt>
-                <c:pt idx="49">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="50">
                   <c:v>14062</c:v>
                 </c:pt>
-                <c:pt idx="51">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="52">
                   <c:v>17284</c:v>
                 </c:pt>
@@ -1764,9 +1758,6 @@
                 <c:pt idx="55">
                   <c:v>16471</c:v>
                 </c:pt>
-                <c:pt idx="56">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="57">
                   <c:v>17795</c:v>
                 </c:pt>
@@ -1827,9 +1818,6 @@
                 <c:pt idx="76">
                   <c:v>25195</c:v>
                 </c:pt>
-                <c:pt idx="77">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="78">
                   <c:v>10235</c:v>
                 </c:pt>
@@ -1865,6 +1853,330 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>18009</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>13827</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>20143</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>15514</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>26912</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>19677</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>20926</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>13730</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>19025</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>18464</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>21318</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>22963</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>19455</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2178,9 +2490,10 @@
             </c:spPr>
           </c:marker>
           <c:xVal>
-            <c:strRef>
+            <c:numRef>
               <c:f>filtro!$A$2:$A$91</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="90"/>
                 <c:pt idx="2">
                   <c:v>3</c:v>
@@ -2386,8 +2699,8 @@
                 <c:pt idx="89">
                   <c:v>90</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
@@ -2395,33 +2708,15 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="90"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="2">
                   <c:v>93.919622405774902</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>91.758200136353295</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="5">
                   <c:v>98.284717968050501</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="9">
                   <c:v>94.603847407890399</c:v>
                 </c:pt>
@@ -2431,30 +2726,15 @@
                 <c:pt idx="11">
                   <c:v>97.392207157689</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="13">
                   <c:v>95.627896376205996</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>96.113360323886596</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="18">
                   <c:v>96.735831218589794</c:v>
                 </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="20">
                   <c:v>97.311031124285407</c:v>
                 </c:pt>
@@ -2470,33 +2750,18 @@
                 <c:pt idx="24">
                   <c:v>97.716679051543593</c:v>
                 </c:pt>
-                <c:pt idx="25">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="26">
                   <c:v>97.597051845120902</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>97.524392577003994</c:v>
                 </c:pt>
-                <c:pt idx="28">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="30">
                   <c:v>93.465794362329305</c:v>
                 </c:pt>
-                <c:pt idx="31">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="32">
                   <c:v>94.037725893681497</c:v>
                 </c:pt>
-                <c:pt idx="33">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="34">
                   <c:v>97.440273037542596</c:v>
                 </c:pt>
@@ -2515,9 +2780,6 @@
                 <c:pt idx="39">
                   <c:v>97.583498231096698</c:v>
                 </c:pt>
-                <c:pt idx="40">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="41">
                   <c:v>97.6635514018691</c:v>
                 </c:pt>
@@ -2527,9 +2789,6 @@
                 <c:pt idx="43">
                   <c:v>96.695362399333504</c:v>
                 </c:pt>
-                <c:pt idx="44">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="45">
                   <c:v>98.138037239255198</c:v>
                 </c:pt>
@@ -2542,15 +2801,9 @@
                 <c:pt idx="48">
                   <c:v>98.197566715065307</c:v>
                 </c:pt>
-                <c:pt idx="49">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="50">
                   <c:v>97.276347603470299</c:v>
                 </c:pt>
-                <c:pt idx="51">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="52">
                   <c:v>93.930803054848397</c:v>
                 </c:pt>
@@ -2563,9 +2816,6 @@
                 <c:pt idx="55">
                   <c:v>93.667658308542201</c:v>
                 </c:pt>
-                <c:pt idx="56">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="57">
                   <c:v>96.364147232368595</c:v>
                 </c:pt>
@@ -2625,9 +2875,6 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>96.404048422306005</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>98.036150464093794</c:v>
@@ -2909,9 +3156,9 @@
           </c:marker>
           <c:xVal>
             <c:strRef>
-              <c:f>filtro!$A$2:$A$91</c:f>
+              <c:f>filtro!$A$2:$A$200</c:f>
               <c:strCache>
-                <c:ptCount val="90"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="2">
                   <c:v>3</c:v>
                 </c:pt>
@@ -3115,43 +3362,61 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>102</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>filtro!$E$2:$E$91</c:f>
+              <c:f>filtro!$E$2:$E$200</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="90"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
+                <c:ptCount val="199"/>
                 <c:pt idx="2">
                   <c:v>93.919622405774902</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>91.758200136353295</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="5">
                   <c:v>98.284717968050501</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="9">
                   <c:v>94.603847407890399</c:v>
                 </c:pt>
@@ -3161,30 +3426,15 @@
                 <c:pt idx="11">
                   <c:v>97.392207157689</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="13">
                   <c:v>95.627896376205996</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>96.113360323886596</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="18">
                   <c:v>96.735831218589794</c:v>
                 </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="20">
                   <c:v>97.311031124285407</c:v>
                 </c:pt>
@@ -3200,33 +3450,18 @@
                 <c:pt idx="24">
                   <c:v>97.716679051543593</c:v>
                 </c:pt>
-                <c:pt idx="25">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="26">
                   <c:v>97.597051845120902</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>97.524392577003994</c:v>
                 </c:pt>
-                <c:pt idx="28">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="30">
                   <c:v>93.465794362329305</c:v>
                 </c:pt>
-                <c:pt idx="31">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="32">
                   <c:v>94.037725893681497</c:v>
                 </c:pt>
-                <c:pt idx="33">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="34">
                   <c:v>97.440273037542596</c:v>
                 </c:pt>
@@ -3245,9 +3480,6 @@
                 <c:pt idx="39">
                   <c:v>97.583498231096698</c:v>
                 </c:pt>
-                <c:pt idx="40">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="41">
                   <c:v>97.6635514018691</c:v>
                 </c:pt>
@@ -3257,9 +3489,6 @@
                 <c:pt idx="43">
                   <c:v>96.695362399333504</c:v>
                 </c:pt>
-                <c:pt idx="44">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="45">
                   <c:v>98.138037239255198</c:v>
                 </c:pt>
@@ -3272,15 +3501,9 @@
                 <c:pt idx="48">
                   <c:v>98.197566715065307</c:v>
                 </c:pt>
-                <c:pt idx="49">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="50">
                   <c:v>97.276347603470299</c:v>
                 </c:pt>
-                <c:pt idx="51">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="52">
                   <c:v>93.930803054848397</c:v>
                 </c:pt>
@@ -3293,9 +3516,6 @@
                 <c:pt idx="55">
                   <c:v>93.667658308542201</c:v>
                 </c:pt>
-                <c:pt idx="56">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="57">
                   <c:v>96.364147232368595</c:v>
                 </c:pt>
@@ -3356,9 +3576,6 @@
                 <c:pt idx="76">
                   <c:v>96.404048422306005</c:v>
                 </c:pt>
-                <c:pt idx="77">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="78">
                   <c:v>98.036150464093794</c:v>
                 </c:pt>
@@ -3394,6 +3611,330 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>98.139818979399195</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>97.678455196354903</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>96.2517996326267</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>98.375660693567099</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>96.633472057074897</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>95.293998068811305</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>98.035936155978206</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96.5404224326292</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97.3823915900131</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98.153162911611702</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>96.899333896237906</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>97.848713147236793</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>97.476227190953395</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3753,6 +4294,969 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Planilha1!$A$3:$A$104</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="102"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>101</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Planilha1!$B$3:$B$104</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="102"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>485</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>449</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>614</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>494</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>469</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>461</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>571</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>558</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>525</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>486</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>451</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>369</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>469</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>453</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>483</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>612</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>402</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>464</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>476</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>431</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>475</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>526</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>425</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>464</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>402</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>427</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>478</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>459</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>443</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>391</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>508</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>505</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>453</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>529</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>483</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>408</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>505</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>357</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>402</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>539</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>451</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>473</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>423</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>535</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>588</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>363</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>372</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>382</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>534</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>527</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>478</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>459</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>621</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>409</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>404</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>564</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>453</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>448</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>513</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>519</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>496</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>431</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>508</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>457</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>599</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>523</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>524</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>393</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>509</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>472</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>571</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>537</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>517</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A462-498F-88A3-2E32C7C43DF7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>limiar</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Planilha1!$E$8:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>101</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Planilha1!$E$7,Planilha1!$E$7)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>229</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A462-498F-88A3-2E32C7C43DF7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1589140512"/>
+        <c:axId val="1728070272"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1589140512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="102"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1728070272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1728070272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1589140512"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
 <cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
   <cx:chartData>
@@ -3824,7 +5328,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.5</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -3862,7 +5366,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{AE582C71-A888-454F-86A2-796C8767D210}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.4</cx:f>
+              <cx:f>_xlchart.v1.2</cx:f>
               <cx:v>Pixels Agregados</cx:v>
             </cx:txData>
           </cx:tx>
@@ -3890,7 +5394,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.5</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -3928,7 +5432,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{BDF0065E-0469-4BFC-B593-BB490CDEB64D}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.2</cx:f>
+              <cx:f>_xlchart.v1.4</cx:f>
               <cx:v>Cobrimento</cx:v>
             </cx:txData>
           </cx:tx>
@@ -4231,6 +5735,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
   <cs:axisTitle>
@@ -7325,6 +8869,522 @@
 </file>
 
 <file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8234,6 +10294,47 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45AA6AF2-6144-4DE8-9D0F-AAB766E9A104}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -8499,8 +10600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U103"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10413,7 +12514,7 @@
   <dimension ref="A1:G200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10442,27 +12543,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="str">
-        <f>IF(Plan1!$B2&lt;Plan1!$P$21,"",Plan1!A2)</f>
-        <v/>
-      </c>
-      <c r="B2" t="str">
-        <f>IF(Plan1!$B2&lt;Plan1!$P$21,"",Plan1!B2)</f>
-        <v/>
-      </c>
-      <c r="C2" t="str">
-        <f>IF(Plan1!$B2&lt;Plan1!$P$21,"",Plan1!C2)</f>
-        <v/>
-      </c>
-      <c r="D2" t="str">
-        <f>IF(Plan1!$B2&lt;Plan1!$P$21,"",Plan1!D2)</f>
-        <v/>
-      </c>
-      <c r="E2" t="str">
-        <f>IF(Plan1!$B2&lt;Plan1!$P$21,"",Plan1!E2)</f>
-        <v/>
-      </c>
-      <c r="F2" s="1">
+      <c r="F2" s="10">
         <f>AVERAGE(E2:E91)</f>
         <v>96.344484622762621</v>
       </c>
@@ -10471,27 +12552,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="str">
-        <f>IF(Plan1!$B3&lt;Plan1!$P$21,"",Plan1!A3)</f>
-        <v/>
-      </c>
-      <c r="B3" t="str">
-        <f>IF(Plan1!$B3&lt;Plan1!$P$21,"",Plan1!B3)</f>
-        <v/>
-      </c>
-      <c r="C3" t="str">
-        <f>IF(Plan1!$B3&lt;Plan1!$P$21,"",Plan1!C3)</f>
-        <v/>
-      </c>
-      <c r="D3" t="str">
-        <f>IF(Plan1!$B3&lt;Plan1!$P$21,"",Plan1!D3)</f>
-        <v/>
-      </c>
-      <c r="E3" t="str">
-        <f>IF(Plan1!$B3&lt;Plan1!$P$21,"",Plan1!E3)</f>
-        <v/>
-      </c>
-      <c r="F3" s="1">
+      <c r="F3" s="10">
         <f>_xlfn.STDEV.S(E2:E91)</f>
         <v>1.7108140269993224</v>
       </c>
@@ -10556,26 +12617,6 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="str">
-        <f>IF(Plan1!$B6&lt;Plan1!$P$21,"",Plan1!A6)</f>
-        <v/>
-      </c>
-      <c r="B6" t="str">
-        <f>IF(Plan1!$B6&lt;Plan1!$P$21,"",Plan1!B6)</f>
-        <v/>
-      </c>
-      <c r="C6" t="str">
-        <f>IF(Plan1!$B6&lt;Plan1!$P$21,"",Plan1!C6)</f>
-        <v/>
-      </c>
-      <c r="D6" t="str">
-        <f>IF(Plan1!$B6&lt;Plan1!$P$21,"",Plan1!D6)</f>
-        <v/>
-      </c>
-      <c r="E6" t="str">
-        <f>IF(Plan1!$B6&lt;Plan1!$P$21,"",Plan1!E6)</f>
-        <v/>
-      </c>
       <c r="F6">
         <f>MIN(E2:E91)</f>
         <v>91.203755448753697</v>
@@ -10614,26 +12655,6 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" t="str">
-        <f>IF(Plan1!$B8&lt;Plan1!$P$21,"",Plan1!A8)</f>
-        <v/>
-      </c>
-      <c r="B8" t="str">
-        <f>IF(Plan1!$B8&lt;Plan1!$P$21,"",Plan1!B8)</f>
-        <v/>
-      </c>
-      <c r="C8" t="str">
-        <f>IF(Plan1!$B8&lt;Plan1!$P$21,"",Plan1!C8)</f>
-        <v/>
-      </c>
-      <c r="D8" t="str">
-        <f>IF(Plan1!$B8&lt;Plan1!$P$21,"",Plan1!D8)</f>
-        <v/>
-      </c>
-      <c r="E8" t="str">
-        <f>IF(Plan1!$B8&lt;Plan1!$P$21,"",Plan1!E8)</f>
-        <v/>
-      </c>
       <c r="F8" s="3">
         <f>F3/F2</f>
         <v>1.7757259626205116E-2</v>
@@ -10643,26 +12664,6 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" t="str">
-        <f>IF(Plan1!$B9&lt;Plan1!$P$21,"",Plan1!A9)</f>
-        <v/>
-      </c>
-      <c r="B9" t="str">
-        <f>IF(Plan1!$B9&lt;Plan1!$P$21,"",Plan1!B9)</f>
-        <v/>
-      </c>
-      <c r="C9" t="str">
-        <f>IF(Plan1!$B9&lt;Plan1!$P$21,"",Plan1!C9)</f>
-        <v/>
-      </c>
-      <c r="D9" t="str">
-        <f>IF(Plan1!$B9&lt;Plan1!$P$21,"",Plan1!D9)</f>
-        <v/>
-      </c>
-      <c r="E9" t="str">
-        <f>IF(Plan1!$B9&lt;Plan1!$P$21,"",Plan1!E9)</f>
-        <v/>
-      </c>
       <c r="F9">
         <v>0</v>
       </c>
@@ -10672,26 +12673,6 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" t="str">
-        <f>IF(Plan1!$B10&lt;Plan1!$P$21,"",Plan1!A10)</f>
-        <v/>
-      </c>
-      <c r="B10" t="str">
-        <f>IF(Plan1!$B10&lt;Plan1!$P$21,"",Plan1!B10)</f>
-        <v/>
-      </c>
-      <c r="C10" t="str">
-        <f>IF(Plan1!$B10&lt;Plan1!$P$21,"",Plan1!C10)</f>
-        <v/>
-      </c>
-      <c r="D10" t="str">
-        <f>IF(Plan1!$B10&lt;Plan1!$P$21,"",Plan1!D10)</f>
-        <v/>
-      </c>
-      <c r="E10" t="str">
-        <f>IF(Plan1!$B10&lt;Plan1!$P$21,"",Plan1!E10)</f>
-        <v/>
-      </c>
       <c r="F10">
         <v>112</v>
       </c>
@@ -10722,8 +12703,8 @@
         <v>94.603847407890399</v>
       </c>
       <c r="F11">
-        <f>COUNT(filtro!A2:A91)</f>
-        <v>68</v>
+        <f>COUNT(filtro!A2:A200)</f>
+        <v>80</v>
       </c>
       <c r="G11" t="s">
         <v>15</v>
@@ -10751,8 +12732,8 @@
         <v>97.119314436387597</v>
       </c>
       <c r="F12">
-        <f>COUNT(Plan1!A2:A105)-COUNT(filtro!A2:A91)</f>
-        <v>34</v>
+        <f>COUNT(Plan1!A2:A200)-COUNT(filtro!A2:A200)</f>
+        <v>22</v>
       </c>
       <c r="G12" t="s">
         <v>14</v>
@@ -10780,28 +12761,6 @@
         <v>97.392207157689</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" t="str">
-        <f>IF(Plan1!$B14&lt;Plan1!$P$21,"",Plan1!A14)</f>
-        <v/>
-      </c>
-      <c r="B14" t="str">
-        <f>IF(Plan1!$B14&lt;Plan1!$P$21,"",Plan1!B14)</f>
-        <v/>
-      </c>
-      <c r="C14" t="str">
-        <f>IF(Plan1!$B14&lt;Plan1!$P$21,"",Plan1!C14)</f>
-        <v/>
-      </c>
-      <c r="D14" t="str">
-        <f>IF(Plan1!$B14&lt;Plan1!$P$21,"",Plan1!D14)</f>
-        <v/>
-      </c>
-      <c r="E14" t="str">
-        <f>IF(Plan1!$B14&lt;Plan1!$P$21,"",Plan1!E14)</f>
-        <v/>
-      </c>
-    </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <f>IF(Plan1!$B15&lt;Plan1!$P$21,"",Plan1!A15)</f>
@@ -10846,72 +12805,6 @@
         <v>96.113360323886596</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" t="str">
-        <f>IF(Plan1!$B17&lt;Plan1!$P$21,"",Plan1!A17)</f>
-        <v/>
-      </c>
-      <c r="B17" t="str">
-        <f>IF(Plan1!$B17&lt;Plan1!$P$21,"",Plan1!B17)</f>
-        <v/>
-      </c>
-      <c r="C17" t="str">
-        <f>IF(Plan1!$B17&lt;Plan1!$P$21,"",Plan1!C17)</f>
-        <v/>
-      </c>
-      <c r="D17" t="str">
-        <f>IF(Plan1!$B17&lt;Plan1!$P$21,"",Plan1!D17)</f>
-        <v/>
-      </c>
-      <c r="E17" t="str">
-        <f>IF(Plan1!$B17&lt;Plan1!$P$21,"",Plan1!E17)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" t="str">
-        <f>IF(Plan1!$B18&lt;Plan1!$P$21,"",Plan1!A18)</f>
-        <v/>
-      </c>
-      <c r="B18" t="str">
-        <f>IF(Plan1!$B18&lt;Plan1!$P$21,"",Plan1!B18)</f>
-        <v/>
-      </c>
-      <c r="C18" t="str">
-        <f>IF(Plan1!$B18&lt;Plan1!$P$21,"",Plan1!C18)</f>
-        <v/>
-      </c>
-      <c r="D18" t="str">
-        <f>IF(Plan1!$B18&lt;Plan1!$P$21,"",Plan1!D18)</f>
-        <v/>
-      </c>
-      <c r="E18" t="str">
-        <f>IF(Plan1!$B18&lt;Plan1!$P$21,"",Plan1!E18)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" t="str">
-        <f>IF(Plan1!$B19&lt;Plan1!$P$21,"",Plan1!A19)</f>
-        <v/>
-      </c>
-      <c r="B19" t="str">
-        <f>IF(Plan1!$B19&lt;Plan1!$P$21,"",Plan1!B19)</f>
-        <v/>
-      </c>
-      <c r="C19" t="str">
-        <f>IF(Plan1!$B19&lt;Plan1!$P$21,"",Plan1!C19)</f>
-        <v/>
-      </c>
-      <c r="D19" t="str">
-        <f>IF(Plan1!$B19&lt;Plan1!$P$21,"",Plan1!D19)</f>
-        <v/>
-      </c>
-      <c r="E19" t="str">
-        <f>IF(Plan1!$B19&lt;Plan1!$P$21,"",Plan1!E19)</f>
-        <v/>
-      </c>
-    </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <f>IF(Plan1!$B20&lt;Plan1!$P$21,"",Plan1!A20)</f>
@@ -10934,28 +12827,6 @@
         <v>96.735831218589794</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" t="str">
-        <f>IF(Plan1!$B21&lt;Plan1!$P$21,"",Plan1!A21)</f>
-        <v/>
-      </c>
-      <c r="B21" t="str">
-        <f>IF(Plan1!$B21&lt;Plan1!$P$21,"",Plan1!B21)</f>
-        <v/>
-      </c>
-      <c r="C21" t="str">
-        <f>IF(Plan1!$B21&lt;Plan1!$P$21,"",Plan1!C21)</f>
-        <v/>
-      </c>
-      <c r="D21" t="str">
-        <f>IF(Plan1!$B21&lt;Plan1!$P$21,"",Plan1!D21)</f>
-        <v/>
-      </c>
-      <c r="E21" t="str">
-        <f>IF(Plan1!$B21&lt;Plan1!$P$21,"",Plan1!E21)</f>
-        <v/>
-      </c>
-    </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
         <f>IF(Plan1!$B22&lt;Plan1!$P$21,"",Plan1!A22)</f>
@@ -11066,28 +12937,6 @@
         <v>97.716679051543593</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" t="str">
-        <f>IF(Plan1!$B27&lt;Plan1!$P$21,"",Plan1!A27)</f>
-        <v/>
-      </c>
-      <c r="B27" t="str">
-        <f>IF(Plan1!$B27&lt;Plan1!$P$21,"",Plan1!B27)</f>
-        <v/>
-      </c>
-      <c r="C27" t="str">
-        <f>IF(Plan1!$B27&lt;Plan1!$P$21,"",Plan1!C27)</f>
-        <v/>
-      </c>
-      <c r="D27" t="str">
-        <f>IF(Plan1!$B27&lt;Plan1!$P$21,"",Plan1!D27)</f>
-        <v/>
-      </c>
-      <c r="E27" t="str">
-        <f>IF(Plan1!$B27&lt;Plan1!$P$21,"",Plan1!E27)</f>
-        <v/>
-      </c>
-    </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
         <f>IF(Plan1!$B28&lt;Plan1!$P$21,"",Plan1!A28)</f>
@@ -11132,50 +12981,6 @@
         <v>97.524392577003994</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" t="str">
-        <f>IF(Plan1!$B30&lt;Plan1!$P$21,"",Plan1!A30)</f>
-        <v/>
-      </c>
-      <c r="B30" t="str">
-        <f>IF(Plan1!$B30&lt;Plan1!$P$21,"",Plan1!B30)</f>
-        <v/>
-      </c>
-      <c r="C30" t="str">
-        <f>IF(Plan1!$B30&lt;Plan1!$P$21,"",Plan1!C30)</f>
-        <v/>
-      </c>
-      <c r="D30" t="str">
-        <f>IF(Plan1!$B30&lt;Plan1!$P$21,"",Plan1!D30)</f>
-        <v/>
-      </c>
-      <c r="E30" t="str">
-        <f>IF(Plan1!$B30&lt;Plan1!$P$21,"",Plan1!E30)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" t="str">
-        <f>IF(Plan1!$B31&lt;Plan1!$P$21,"",Plan1!A31)</f>
-        <v/>
-      </c>
-      <c r="B31" t="str">
-        <f>IF(Plan1!$B31&lt;Plan1!$P$21,"",Plan1!B31)</f>
-        <v/>
-      </c>
-      <c r="C31" t="str">
-        <f>IF(Plan1!$B31&lt;Plan1!$P$21,"",Plan1!C31)</f>
-        <v/>
-      </c>
-      <c r="D31" t="str">
-        <f>IF(Plan1!$B31&lt;Plan1!$P$21,"",Plan1!D31)</f>
-        <v/>
-      </c>
-      <c r="E31" t="str">
-        <f>IF(Plan1!$B31&lt;Plan1!$P$21,"",Plan1!E31)</f>
-        <v/>
-      </c>
-    </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32">
         <f>IF(Plan1!$B32&lt;Plan1!$P$21,"",Plan1!A32)</f>
@@ -11198,28 +13003,6 @@
         <v>93.465794362329305</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" t="str">
-        <f>IF(Plan1!$B33&lt;Plan1!$P$21,"",Plan1!A33)</f>
-        <v/>
-      </c>
-      <c r="B33" t="str">
-        <f>IF(Plan1!$B33&lt;Plan1!$P$21,"",Plan1!B33)</f>
-        <v/>
-      </c>
-      <c r="C33" t="str">
-        <f>IF(Plan1!$B33&lt;Plan1!$P$21,"",Plan1!C33)</f>
-        <v/>
-      </c>
-      <c r="D33" t="str">
-        <f>IF(Plan1!$B33&lt;Plan1!$P$21,"",Plan1!D33)</f>
-        <v/>
-      </c>
-      <c r="E33" t="str">
-        <f>IF(Plan1!$B33&lt;Plan1!$P$21,"",Plan1!E33)</f>
-        <v/>
-      </c>
-    </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34">
         <f>IF(Plan1!$B34&lt;Plan1!$P$21,"",Plan1!A34)</f>
@@ -11242,28 +13025,6 @@
         <v>94.037725893681497</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" t="str">
-        <f>IF(Plan1!$B35&lt;Plan1!$P$21,"",Plan1!A35)</f>
-        <v/>
-      </c>
-      <c r="B35" t="str">
-        <f>IF(Plan1!$B35&lt;Plan1!$P$21,"",Plan1!B35)</f>
-        <v/>
-      </c>
-      <c r="C35" t="str">
-        <f>IF(Plan1!$B35&lt;Plan1!$P$21,"",Plan1!C35)</f>
-        <v/>
-      </c>
-      <c r="D35" t="str">
-        <f>IF(Plan1!$B35&lt;Plan1!$P$21,"",Plan1!D35)</f>
-        <v/>
-      </c>
-      <c r="E35" t="str">
-        <f>IF(Plan1!$B35&lt;Plan1!$P$21,"",Plan1!E35)</f>
-        <v/>
-      </c>
-    </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36">
         <f>IF(Plan1!$B36&lt;Plan1!$P$21,"",Plan1!A36)</f>
@@ -11396,28 +13157,6 @@
         <v>97.583498231096698</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" t="str">
-        <f>IF(Plan1!$B42&lt;Plan1!$P$21,"",Plan1!A42)</f>
-        <v/>
-      </c>
-      <c r="B42" t="str">
-        <f>IF(Plan1!$B42&lt;Plan1!$P$21,"",Plan1!B42)</f>
-        <v/>
-      </c>
-      <c r="C42" t="str">
-        <f>IF(Plan1!$B42&lt;Plan1!$P$21,"",Plan1!C42)</f>
-        <v/>
-      </c>
-      <c r="D42" t="str">
-        <f>IF(Plan1!$B42&lt;Plan1!$P$21,"",Plan1!D42)</f>
-        <v/>
-      </c>
-      <c r="E42" t="str">
-        <f>IF(Plan1!$B42&lt;Plan1!$P$21,"",Plan1!E42)</f>
-        <v/>
-      </c>
-    </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43">
         <f>IF(Plan1!$B43&lt;Plan1!$P$21,"",Plan1!A43)</f>
@@ -11484,28 +13223,6 @@
         <v>96.695362399333504</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" t="str">
-        <f>IF(Plan1!$B46&lt;Plan1!$P$21,"",Plan1!A46)</f>
-        <v/>
-      </c>
-      <c r="B46" t="str">
-        <f>IF(Plan1!$B46&lt;Plan1!$P$21,"",Plan1!B46)</f>
-        <v/>
-      </c>
-      <c r="C46" t="str">
-        <f>IF(Plan1!$B46&lt;Plan1!$P$21,"",Plan1!C46)</f>
-        <v/>
-      </c>
-      <c r="D46" t="str">
-        <f>IF(Plan1!$B46&lt;Plan1!$P$21,"",Plan1!D46)</f>
-        <v/>
-      </c>
-      <c r="E46" t="str">
-        <f>IF(Plan1!$B46&lt;Plan1!$P$21,"",Plan1!E46)</f>
-        <v/>
-      </c>
-    </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47">
         <f>IF(Plan1!$B47&lt;Plan1!$P$21,"",Plan1!A47)</f>
@@ -11594,28 +13311,6 @@
         <v>98.197566715065307</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" t="str">
-        <f>IF(Plan1!$B51&lt;Plan1!$P$21,"",Plan1!A51)</f>
-        <v/>
-      </c>
-      <c r="B51" t="str">
-        <f>IF(Plan1!$B51&lt;Plan1!$P$21,"",Plan1!B51)</f>
-        <v/>
-      </c>
-      <c r="C51" t="str">
-        <f>IF(Plan1!$B51&lt;Plan1!$P$21,"",Plan1!C51)</f>
-        <v/>
-      </c>
-      <c r="D51" t="str">
-        <f>IF(Plan1!$B51&lt;Plan1!$P$21,"",Plan1!D51)</f>
-        <v/>
-      </c>
-      <c r="E51" t="str">
-        <f>IF(Plan1!$B51&lt;Plan1!$P$21,"",Plan1!E51)</f>
-        <v/>
-      </c>
-    </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52">
         <f>IF(Plan1!$B52&lt;Plan1!$P$21,"",Plan1!A52)</f>
@@ -11638,28 +13333,6 @@
         <v>97.276347603470299</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" t="str">
-        <f>IF(Plan1!$B53&lt;Plan1!$P$21,"",Plan1!A53)</f>
-        <v/>
-      </c>
-      <c r="B53" t="str">
-        <f>IF(Plan1!$B53&lt;Plan1!$P$21,"",Plan1!B53)</f>
-        <v/>
-      </c>
-      <c r="C53" t="str">
-        <f>IF(Plan1!$B53&lt;Plan1!$P$21,"",Plan1!C53)</f>
-        <v/>
-      </c>
-      <c r="D53" t="str">
-        <f>IF(Plan1!$B53&lt;Plan1!$P$21,"",Plan1!D53)</f>
-        <v/>
-      </c>
-      <c r="E53" t="str">
-        <f>IF(Plan1!$B53&lt;Plan1!$P$21,"",Plan1!E53)</f>
-        <v/>
-      </c>
-    </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54">
         <f>IF(Plan1!$B54&lt;Plan1!$P$21,"",Plan1!A54)</f>
@@ -11748,28 +13421,6 @@
         <v>93.667658308542201</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" t="str">
-        <f>IF(Plan1!$B58&lt;Plan1!$P$21,"",Plan1!A58)</f>
-        <v/>
-      </c>
-      <c r="B58" t="str">
-        <f>IF(Plan1!$B58&lt;Plan1!$P$21,"",Plan1!B58)</f>
-        <v/>
-      </c>
-      <c r="C58" t="str">
-        <f>IF(Plan1!$B58&lt;Plan1!$P$21,"",Plan1!C58)</f>
-        <v/>
-      </c>
-      <c r="D58" t="str">
-        <f>IF(Plan1!$B58&lt;Plan1!$P$21,"",Plan1!D58)</f>
-        <v/>
-      </c>
-      <c r="E58" t="str">
-        <f>IF(Plan1!$B58&lt;Plan1!$P$21,"",Plan1!E58)</f>
-        <v/>
-      </c>
-    </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59">
         <f>IF(Plan1!$B59&lt;Plan1!$P$21,"",Plan1!A59)</f>
@@ -12210,28 +13861,6 @@
         <v>96.404048422306005</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79" t="str">
-        <f>IF(Plan1!$B79&lt;Plan1!$P$21,"",Plan1!A79)</f>
-        <v/>
-      </c>
-      <c r="B79" t="str">
-        <f>IF(Plan1!$B79&lt;Plan1!$P$21,"",Plan1!B79)</f>
-        <v/>
-      </c>
-      <c r="C79" t="str">
-        <f>IF(Plan1!$B79&lt;Plan1!$P$21,"",Plan1!C79)</f>
-        <v/>
-      </c>
-      <c r="D79" t="str">
-        <f>IF(Plan1!$B79&lt;Plan1!$P$21,"",Plan1!D79)</f>
-        <v/>
-      </c>
-      <c r="E79" t="str">
-        <f>IF(Plan1!$B79&lt;Plan1!$P$21,"",Plan1!E79)</f>
-        <v/>
-      </c>
-    </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80">
         <f>IF(Plan1!$B80&lt;Plan1!$P$21,"",Plan1!A80)</f>
@@ -12760,28 +14389,6 @@
         <v>97.476227190953395</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A104" t="str">
-        <f>IF(Plan1!$B104&lt;Plan1!$P$21,"",Plan1!A104)</f>
-        <v/>
-      </c>
-      <c r="B104" t="str">
-        <f>IF(Plan1!$B104&lt;Plan1!$P$21,"",Plan1!B104)</f>
-        <v/>
-      </c>
-      <c r="C104" t="str">
-        <f>IF(Plan1!$B104&lt;Plan1!$P$21,"",Plan1!C104)</f>
-        <v/>
-      </c>
-      <c r="D104" t="str">
-        <f>IF(Plan1!$B104&lt;Plan1!$P$21,"",Plan1!D104)</f>
-        <v/>
-      </c>
-      <c r="E104" t="str">
-        <f>IF(Plan1!$B104&lt;Plan1!$P$21,"",Plan1!E104)</f>
-        <v/>
-      </c>
-    </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" t="str">
         <f>IF(Plan1!$B105&lt;Plan1!$P$21,"",Plan1!A105)</f>
@@ -14892,6 +16499,877 @@
       <c r="E200" t="str">
         <f>IF(Plan1!$B200&lt;Plan1!$P$21,"",Plan1!E200)</f>
         <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0706EFF1-726A-453F-BDCB-89FB78039E98}">
+  <dimension ref="A3:E103"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O18" sqref="O18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3">
+        <f>QUARTILE(B3:B104,1)</f>
+        <v>369</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>48</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4">
+        <f>QUARTILE(B3:B104,3)</f>
+        <v>509</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5">
+        <f>E4-E3</f>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>485</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>449</v>
+      </c>
+      <c r="D7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7">
+        <f>E3-(E6*E5)</f>
+        <v>229</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>614</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9">
+        <f>COUNT(B3:B104)</f>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>64</v>
+      </c>
+      <c r="B66">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>65</v>
+      </c>
+      <c r="B67">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>66</v>
+      </c>
+      <c r="B68">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>67</v>
+      </c>
+      <c r="B69">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>68</v>
+      </c>
+      <c r="B70">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>71</v>
+      </c>
+      <c r="B73">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>72</v>
+      </c>
+      <c r="B74">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>73</v>
+      </c>
+      <c r="B75">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>74</v>
+      </c>
+      <c r="B76">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>75</v>
+      </c>
+      <c r="B77">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>76</v>
+      </c>
+      <c r="B78">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>77</v>
+      </c>
+      <c r="B79">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>78</v>
+      </c>
+      <c r="B80">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>79</v>
+      </c>
+      <c r="B81">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>80</v>
+      </c>
+      <c r="B82">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>81</v>
+      </c>
+      <c r="B83">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>82</v>
+      </c>
+      <c r="B84">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>83</v>
+      </c>
+      <c r="B85">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>84</v>
+      </c>
+      <c r="B86">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>85</v>
+      </c>
+      <c r="B87">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>86</v>
+      </c>
+      <c r="B88">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>87</v>
+      </c>
+      <c r="B89">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>88</v>
+      </c>
+      <c r="B90">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>89</v>
+      </c>
+      <c r="B91">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>90</v>
+      </c>
+      <c r="B92">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>91</v>
+      </c>
+      <c r="B93">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>92</v>
+      </c>
+      <c r="B94">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>93</v>
+      </c>
+      <c r="B95">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>94</v>
+      </c>
+      <c r="B96">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>95</v>
+      </c>
+      <c r="B97">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>96</v>
+      </c>
+      <c r="B98">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>97</v>
+      </c>
+      <c r="B99">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>98</v>
+      </c>
+      <c r="B100">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>99</v>
+      </c>
+      <c r="B101">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>100</v>
+      </c>
+      <c r="B102">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>101</v>
+      </c>
+      <c r="B103">
+        <v>517</v>
       </c>
     </row>
   </sheetData>
